--- a/pred_ohlcv/54_21/2019-10-28 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ANKR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3684896.695800001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3494782.627400001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3525768.603200001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3671553.737000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3588542.159400001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3588542.159400001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3599963.159400001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3599863.159400001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3663580.489200001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-3663480.489200001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-3758654.506500001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3758654.506500001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4132027.443300001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4132027.443300001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4093713.267100001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4093713.267100001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4177864.780700001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4511506.338700001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-4473192.162500001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4377406.721900001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4725797.752500001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-5668694.0381</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4914034.397400001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4246935.987900002</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4319100.785700002</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4223848.691100002</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4177532.901700002</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4177522.901700002</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4177522.901700002</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4228682.901700002</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4475200.241300002</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ANKR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3684896.695800001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3494782.627400001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3525768.603200001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3671553.737000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3588542.159400001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3588542.159400001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3599963.159400001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3599863.159400001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3663580.489200001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-3663480.489200001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-3758654.506500001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3758654.506500001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3689159.4236</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4132027.443300001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4132027.443300001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4093713.267100001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4093713.267100001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4177864.780700001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4511506.338700001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-4473192.162500001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4377406.721900001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4725797.752500001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-5660970.492400001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-6027703.442200001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-6006703.442200001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-7180920.972200002</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-7324873.470200001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-7284873.470200001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-7266254.503800001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-6623023.718800001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-6787552.336200001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-6757983.336200001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-6118980.008100001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5595065.517500001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-3436344.882000001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3436344.882000001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3436344.882000001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3321841.065300001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3342494.174300001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3367116.269600001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3367116.269600001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4914034.397400001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-4913034.397400001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4319100.785700002</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4220193.435800002</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4223848.691100002</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4177522.901700002</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4228682.901700002</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-3511827.767700002</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-3190543.170600002</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-3241749.170600002</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
